--- a/MMR_balance.xlsx
+++ b/MMR_balance.xlsx
@@ -1,25 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\My_stuff\Programming\Py\NEW_Learning\Final_Maggods_Fight\Maggods_Fight\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A9704F-A51F-4E4C-BE9D-B361D33961DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>DMG</t>
+  </si>
+  <si>
+    <t>poseidon</t>
+  </si>
+  <si>
+    <t>hephaestus</t>
+  </si>
+  <si>
+    <t>aphrodite</t>
+  </si>
+  <si>
+    <t>ares</t>
+  </si>
+  <si>
+    <t>hera</t>
+  </si>
+  <si>
+    <t>zeus</t>
+  </si>
+  <si>
+    <t>athena</t>
+  </si>
+  <si>
+    <t>apollo</t>
+  </si>
+  <si>
+    <t>artemis</t>
+  </si>
+  <si>
+    <t>hermes</t>
+  </si>
+  <si>
+    <t>hades_ow</t>
+  </si>
+  <si>
+    <t>thanatos</t>
+  </si>
+  <si>
+    <t>cerberus</t>
+  </si>
+  <si>
+    <t>charon</t>
+  </si>
+  <si>
+    <t>persephone</t>
+  </si>
+  <si>
+    <t>hades_uw</t>
+  </si>
+  <si>
+    <t>tisiphone</t>
+  </si>
+  <si>
+    <t>alecto</t>
+  </si>
+  <si>
+    <t>megaera</t>
+  </si>
+  <si>
+    <t>hecate</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +421,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>B2/($B$22/$C$22)+C2</f>
+        <v>7.8723404255319149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f>B3/($B$22/$C$22)+C3</f>
+        <v>7.1914893617021276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>B4/($B$22/$C$22)+C4</f>
+        <v>6.8723404255319149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>B5/($B$22/$C$22)+C5</f>
+        <v>6.8723404255319149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f>B6/($B$22/$C$22)+C6</f>
+        <v>6.5106382978723403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>B7/($B$22/$C$22)+C7</f>
+        <v>6.4680851063829792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>B8/($B$22/$C$22)+C8</f>
+        <v>6.1914893617021276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f>B9/($B$22/$C$22)+C9</f>
+        <v>5.9148936170212769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f>B10/($B$22/$C$22)+C10</f>
+        <v>5.8723404255319149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f>B11/($B$22/$C$22)+C11</f>
+        <v>5.8723404255319149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f>B12/($B$22/$C$22)+C12</f>
+        <v>5.8723404255319149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f>B13/($B$22/$C$22)+C13</f>
+        <v>5.8723404255319149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f>B14/($B$22/$C$22)+C14</f>
+        <v>5.8723404255319149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f>B15/($B$22/$C$22)+C15</f>
+        <v>5.8297872340425538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f>B16/($B$22/$C$22)+C16</f>
+        <v>5.5531914893617023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f>B17/($B$22/$C$22)+C17</f>
+        <v>5.5531914893617023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f>B18/($B$22/$C$22)+C18</f>
+        <v>5.5106382978723403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f>B19/($B$22/$C$22)+C19</f>
+        <v>5.1914893617021276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f>B20/($B$22/$C$22)+C20</f>
+        <v>4.5531914893617023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f>B21/($B$22/$C$22)+C21</f>
+        <v>4.5531914893617023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>AVERAGE(B2:B21)</f>
+        <v>9.4</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C2:C21)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+    <sortCondition descending="1" ref="D1:D22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>